--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P10_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P10_trail1 Features.xlsx
@@ -3523,7 +3523,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.607198025224224</v>
+        <v>1.595132350253871</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.626825558940062</v>
@@ -3612,7 +3612,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.620810110599124</v>
+        <v>1.609871073009564</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.613794549895058</v>
@@ -3701,7 +3701,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.639244891599592</v>
+        <v>1.630160994930198</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.467841045170715</v>
@@ -3790,7 +3790,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.642201214784894</v>
+        <v>1.630662394708275</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.539082529044873</v>
@@ -3879,7 +3879,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.638850547799378</v>
+        <v>1.626192183587842</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.555783450384622</v>
@@ -3968,7 +3968,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.647082555887605</v>
+        <v>1.634861232403882</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.6198130065294</v>
@@ -4057,7 +4057,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.61862561916225</v>
+        <v>1.608304483788288</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.510828615820955</v>
@@ -4146,7 +4146,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.61028576034788</v>
+        <v>1.597025759056716</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.75372425829771</v>
@@ -4235,7 +4235,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.606993736712915</v>
+        <v>1.587472726894959</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.450143641006578</v>
@@ -4324,7 +4324,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.607252356273242</v>
+        <v>1.594340309314207</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.473798364092223</v>
@@ -4413,7 +4413,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.594886429883393</v>
+        <v>1.58076239454582</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.375016227132562</v>
@@ -4502,7 +4502,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.593418786612427</v>
+        <v>1.578719344149029</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.645623492214024</v>
@@ -4591,7 +4591,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.578964122011009</v>
+        <v>1.562528819362082</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.419645004230946</v>
@@ -4680,7 +4680,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.573864862248185</v>
+        <v>1.559173660520186</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.401477485781215</v>
@@ -4769,7 +4769,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.582221385583961</v>
+        <v>1.568571736711595</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.420352298222862</v>
@@ -4858,7 +4858,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.565669798680996</v>
+        <v>1.549642460049139</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.552879291323528</v>
@@ -4947,7 +4947,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.545858924335545</v>
+        <v>1.526121345369736</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.558710754178521</v>
@@ -5036,7 +5036,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.540859499933134</v>
+        <v>1.51207973609452</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.502309023285255</v>
@@ -5125,7 +5125,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.539563937860858</v>
+        <v>1.518307728300353</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.41296493379459</v>
@@ -5214,7 +5214,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.539308045148539</v>
+        <v>1.517976539024212</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.468617538042978</v>
@@ -5303,7 +5303,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.507806177625438</v>
+        <v>1.487539898520254</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.476973212664419</v>
@@ -5392,7 +5392,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.523665927501823</v>
+        <v>1.501550914389786</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.4553314424103</v>
@@ -5481,7 +5481,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.522326323484054</v>
+        <v>1.497801770621582</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.455401341651804</v>
@@ -5570,7 +5570,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.507612810370897</v>
+        <v>1.488140757661746</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.497350311085179</v>
@@ -5659,7 +5659,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.503150560617114</v>
+        <v>1.480486574335959</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.414110173546898</v>
@@ -5748,7 +5748,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.535876517881977</v>
+        <v>1.51272933971576</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.339681654288089</v>
@@ -5837,7 +5837,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.543103717323433</v>
+        <v>1.525988052549779</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.510955209955975</v>
@@ -5926,7 +5926,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.555080794904125</v>
+        <v>1.542514635915277</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.455247731519477</v>
@@ -6015,7 +6015,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.584833013151537</v>
+        <v>1.5679715571101</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.447133801562861</v>
@@ -6104,7 +6104,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.583772112458422</v>
+        <v>1.570053747189786</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.504734395428599</v>
@@ -6193,7 +6193,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.609018205359243</v>
+        <v>1.598092826277212</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.432682095365443</v>
@@ -6282,7 +6282,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.645333739282481</v>
+        <v>1.641407856042167</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.52895351629029</v>
@@ -6371,7 +6371,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.674101878257437</v>
+        <v>1.66419860545561</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.39412004133795</v>
@@ -6460,7 +6460,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.679398489474655</v>
+        <v>1.670231351170306</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.464824736350539</v>
@@ -6549,7 +6549,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.68284410030321</v>
+        <v>1.676827909394902</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.378384934537411</v>
@@ -6638,7 +6638,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.672397694262722</v>
+        <v>1.669240597985918</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.696769037153596</v>
@@ -6727,7 +6727,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.650145743988095</v>
+        <v>1.646847831784959</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.613195730388877</v>
@@ -6816,7 +6816,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.652305922441954</v>
+        <v>1.652408881241239</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.456757306998579</v>
@@ -6905,7 +6905,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.665251029562458</v>
+        <v>1.658290286866768</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.649805679430746</v>
@@ -6994,7 +6994,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.66970557700695</v>
+        <v>1.658926913420809</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.606851416046947</v>
@@ -7083,7 +7083,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.667572854155578</v>
+        <v>1.658670176955463</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.642693249355277</v>
@@ -7172,7 +7172,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.660955688845759</v>
+        <v>1.646332091177271</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.62775196626964</v>
@@ -7458,7 +7458,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.584982378339901</v>
+        <v>1.590157694671737</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.852169793572437</v>
@@ -7547,7 +7547,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.604636174162884</v>
+        <v>1.610276550176728</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.707413315462021</v>
@@ -7636,7 +7636,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.625451859565159</v>
+        <v>1.632845229653428</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.465979953333737</v>
@@ -7725,7 +7725,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.617735476430599</v>
+        <v>1.624963323239473</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.82682657318133</v>
@@ -7814,7 +7814,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.615006268251969</v>
+        <v>1.620158071407052</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.74269900045018</v>
@@ -7903,7 +7903,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.634647869317827</v>
+        <v>1.634775722836022</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.590060436936829</v>
@@ -7992,7 +7992,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.619866177266831</v>
+        <v>1.618961532616037</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.660960957997148</v>
@@ -8081,7 +8081,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.612957805007866</v>
+        <v>1.614867852308537</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.773974205089339</v>
@@ -8170,7 +8170,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.614782298983148</v>
+        <v>1.620161566032936</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.643848475106954</v>
@@ -8259,7 +8259,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.626046301298239</v>
+        <v>1.628226437900514</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.627051461899631</v>
@@ -8348,7 +8348,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.620421930367662</v>
+        <v>1.620497900087688</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.569189457861053</v>
@@ -8437,7 +8437,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.609679558429714</v>
+        <v>1.610403418522206</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.635017542413706</v>
@@ -8526,7 +8526,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.61272350468873</v>
+        <v>1.611177710758573</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.53891728087915</v>
@@ -8615,7 +8615,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.612205776473499</v>
+        <v>1.604215674156662</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.383562708638256</v>
@@ -8704,7 +8704,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.578851397322993</v>
+        <v>1.57441911205019</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.367841834183079</v>
@@ -8793,7 +8793,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.577778194555782</v>
+        <v>1.572908770330745</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.318932026792337</v>
@@ -8882,7 +8882,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.582593384953328</v>
+        <v>1.576896733316301</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.347782618828674</v>
@@ -8971,7 +8971,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.5797825725419</v>
+        <v>1.572109832941345</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.492115905124308</v>
@@ -9060,7 +9060,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.578699845015195</v>
+        <v>1.574682058440071</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.339133149362704</v>
@@ -9149,7 +9149,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.586197467127951</v>
+        <v>1.585756726810286</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.30519227340331</v>
@@ -9238,7 +9238,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.555106118077604</v>
+        <v>1.557771110108616</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.389495805987601</v>
@@ -9327,7 +9327,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.577582118960827</v>
+        <v>1.578607863126438</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.415641385148001</v>
@@ -9416,7 +9416,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.577913943164447</v>
+        <v>1.576713081248647</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.374348690686421</v>
@@ -9505,7 +9505,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.561501878086629</v>
+        <v>1.561308338740492</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.363546333168098</v>
@@ -9594,7 +9594,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.548919822296563</v>
+        <v>1.550252690645348</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.391346056402992</v>
@@ -9683,7 +9683,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.545022087659944</v>
+        <v>1.545244791900549</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.368639681776687</v>
@@ -9772,7 +9772,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.542821206370408</v>
+        <v>1.542271484167532</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.379955468815115</v>
@@ -9861,7 +9861,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.544079161670945</v>
+        <v>1.54270132818747</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.411885928209047</v>
@@ -9950,7 +9950,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.574463545683932</v>
+        <v>1.570008828001804</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.468835794872618</v>
@@ -10039,7 +10039,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.586637423350819</v>
+        <v>1.584809870443189</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.361296408799843</v>
@@ -10128,7 +10128,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.591267585323634</v>
+        <v>1.588044886540119</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.31504040325215</v>
@@ -10217,7 +10217,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.590722026392524</v>
+        <v>1.589232151267388</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.292869914092783</v>
@@ -10306,7 +10306,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.59463758326762</v>
+        <v>1.584843414171702</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.2349766598878</v>
@@ -10395,7 +10395,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.604706598182403</v>
+        <v>1.593439622123264</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.499117845725932</v>
@@ -10484,7 +10484,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.595444608194436</v>
+        <v>1.584081687433736</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.426528450923031</v>
@@ -10573,7 +10573,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.566897488985807</v>
+        <v>1.565991016193138</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.231375762522748</v>
@@ -10662,7 +10662,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.562961896507594</v>
+        <v>1.56306842993535</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.319376309302601</v>
@@ -10751,7 +10751,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.548517548371963</v>
+        <v>1.549848678384064</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.270434610845488</v>
@@ -10840,7 +10840,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.548248896285087</v>
+        <v>1.549855616841578</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.354001533963424</v>
@@ -10929,7 +10929,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.546995733536207</v>
+        <v>1.54858037612366</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.360778301884258</v>
@@ -11018,7 +11018,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.547242287805732</v>
+        <v>1.550883421514153</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.2472240188165</v>
@@ -11107,7 +11107,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.550650133071922</v>
+        <v>1.554728916602639</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.342235353310807</v>
@@ -11393,7 +11393,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.585980531824534</v>
+        <v>1.566093065682746</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.250091460094577</v>
@@ -11482,7 +11482,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.587992905638752</v>
+        <v>1.56727519948379</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.771212900294556</v>
@@ -11571,7 +11571,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.594239916068009</v>
+        <v>1.567592953827412</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.901560384784442</v>
@@ -11660,7 +11660,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.586399693497298</v>
+        <v>1.565435430907765</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.052693270927125</v>
@@ -11749,7 +11749,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.59017741558755</v>
+        <v>1.564128407948412</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.998126194804303</v>
@@ -11838,7 +11838,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.619088327394793</v>
+        <v>1.582373158531148</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.784643013063971</v>
@@ -11927,7 +11927,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.620743042145252</v>
+        <v>1.582436358468184</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.272348592487118</v>
@@ -12016,7 +12016,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.622350062560339</v>
+        <v>1.582550767010462</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.007027009326843</v>
@@ -12105,7 +12105,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.602218134424056</v>
+        <v>1.57000917143437</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.84590907053366</v>
@@ -12194,7 +12194,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.597840138896671</v>
+        <v>1.563402504509975</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.964324825360342</v>
@@ -12283,7 +12283,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.600575109364104</v>
+        <v>1.56354566778266</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.157533037264598</v>
@@ -12372,7 +12372,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.602395918227075</v>
+        <v>1.558056837897373</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.190583999048653</v>
@@ -12461,7 +12461,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.604634742762819</v>
+        <v>1.561594210666337</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.553483761920259</v>
@@ -12550,7 +12550,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.601798112074533</v>
+        <v>1.561631420822028</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.069762567322694</v>
@@ -12639,7 +12639,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.608721211215889</v>
+        <v>1.572714016879702</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.982708733385128</v>
@@ -12728,7 +12728,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.602945201416675</v>
+        <v>1.568930226089744</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.179791654717862</v>
@@ -12817,7 +12817,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.594985169387477</v>
+        <v>1.566605032817793</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.02148990855062</v>
@@ -12906,7 +12906,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.603185757751751</v>
+        <v>1.571754727095488</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.782541998385113</v>
@@ -12995,7 +12995,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.599470599791421</v>
+        <v>1.572985876227648</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.17698487153453</v>
@@ -13084,7 +13084,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.601012919178075</v>
+        <v>1.57764291796282</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.01348362289874</v>
@@ -13173,7 +13173,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.579556379143971</v>
+        <v>1.559617312357759</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.048174621542705</v>
@@ -13262,7 +13262,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.578913690479499</v>
+        <v>1.560620196333168</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.030638382127992</v>
@@ -13351,7 +13351,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.568893815905205</v>
+        <v>1.547821013386653</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.989632612645574</v>
@@ -13440,7 +13440,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.570354162477273</v>
+        <v>1.548948100745373</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.059348743034861</v>
@@ -13529,7 +13529,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.567237370976176</v>
+        <v>1.546828690552656</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.931050054140538</v>
@@ -13618,7 +13618,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.570644852202699</v>
+        <v>1.553708348238284</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.940284734098585</v>
@@ -13707,7 +13707,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.571267909463302</v>
+        <v>1.561484771337674</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.939307125497946</v>
@@ -13796,7 +13796,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.574438532366843</v>
+        <v>1.561490107728057</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.950836832331769</v>
@@ -13885,7 +13885,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.588686372436223</v>
+        <v>1.568999420133614</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.020727835771262</v>
@@ -13974,7 +13974,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.579398587376902</v>
+        <v>1.560201460032599</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.146948913307648</v>
@@ -14063,7 +14063,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.588724102482624</v>
+        <v>1.567168407944378</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.829027948214214</v>
@@ -14152,7 +14152,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.59161294270226</v>
+        <v>1.564900840713102</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.017351787555156</v>
@@ -14241,7 +14241,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.596348254993794</v>
+        <v>1.572016388613094</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.690488446132807</v>
@@ -14330,7 +14330,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.607648857692256</v>
+        <v>1.583808652970606</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.141778001435026</v>
@@ -14419,7 +14419,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.611034677922129</v>
+        <v>1.588568151034119</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.20457902118833</v>
@@ -14508,7 +14508,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.616222342496366</v>
+        <v>1.596185222417216</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.654501182687462</v>
@@ -14597,7 +14597,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.601549232850734</v>
+        <v>1.579338696167336</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.232907190318436</v>
@@ -14686,7 +14686,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.625059949244808</v>
+        <v>1.600203293657798</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.719111846064488</v>
@@ -14775,7 +14775,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.639702399172118</v>
+        <v>1.609047234533796</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.40070588759055</v>
@@ -14864,7 +14864,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.638364860002979</v>
+        <v>1.609477377953019</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.263100630337457</v>
@@ -14953,7 +14953,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.640976540481615</v>
+        <v>1.609049530548016</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.331821433841815</v>
@@ -15042,7 +15042,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.634676706016724</v>
+        <v>1.602643658310072</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.419552903360458</v>
@@ -15328,7 +15328,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.524655983825468</v>
+        <v>1.520765501383501</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.255403962201447</v>
@@ -15417,7 +15417,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.553808890735491</v>
+        <v>1.550347178224523</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.33984112906267</v>
@@ -15506,7 +15506,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.546656778037635</v>
+        <v>1.540067355050439</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.31737975454009</v>
@@ -15595,7 +15595,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.544655620142533</v>
+        <v>1.533683553733356</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.277575011623541</v>
@@ -15684,7 +15684,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.505428522618113</v>
+        <v>1.497788919104144</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.253460658080175</v>
@@ -15773,7 +15773,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.493561223041749</v>
+        <v>1.487396593871488</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.238097767988517</v>
@@ -15862,7 +15862,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.490411561848196</v>
+        <v>1.486652572660371</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.246421473312896</v>
@@ -15951,7 +15951,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.497194819741749</v>
+        <v>1.493554216210862</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.27632601464482</v>
@@ -16040,7 +16040,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.541153133445675</v>
+        <v>1.531667247607657</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.092949868721308</v>
@@ -16129,7 +16129,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.549308834260362</v>
+        <v>1.536815402682313</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.288443796879112</v>
@@ -16218,7 +16218,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.554562654034684</v>
+        <v>1.538596427731497</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.074776438660982</v>
@@ -16307,7 +16307,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.591982966877969</v>
+        <v>1.571266249721399</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.25181838491978</v>
@@ -16396,7 +16396,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.593260519384261</v>
+        <v>1.57650067743618</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.303146342380542</v>
@@ -16485,7 +16485,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.596340330987763</v>
+        <v>1.578403772368334</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.375253099284173</v>
@@ -16574,7 +16574,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.580145388910233</v>
+        <v>1.560491731890733</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.326735273618633</v>
@@ -16663,7 +16663,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.563187170295066</v>
+        <v>1.545045094444911</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.359396861412486</v>
@@ -16752,7 +16752,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.561687436799326</v>
+        <v>1.542892139728999</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.388053950700087</v>
@@ -16841,7 +16841,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.559513210398936</v>
+        <v>1.539765044112567</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.299247206973293</v>
@@ -16930,7 +16930,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.524861594386983</v>
+        <v>1.510276079149116</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.47470805745404</v>
@@ -17019,7 +17019,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.5638491380499</v>
+        <v>1.54769867322632</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.389709518485762</v>
@@ -17108,7 +17108,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.556368213866678</v>
+        <v>1.541439109177527</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.3177391010145</v>
@@ -17197,7 +17197,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.566537706989366</v>
+        <v>1.550980265000697</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.344901298983301</v>
@@ -17286,7 +17286,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.534965755318751</v>
+        <v>1.522716132710081</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.382267484966163</v>
@@ -17375,7 +17375,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.526882245143582</v>
+        <v>1.516648067006765</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.36177613088434</v>
@@ -17464,7 +17464,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.487994695041742</v>
+        <v>1.48029045777882</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.275855027536105</v>
@@ -17553,7 +17553,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.486315292360405</v>
+        <v>1.481090659833868</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.225954101750551</v>
@@ -17642,7 +17642,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.493953229624679</v>
+        <v>1.483396716974013</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.219759329580055</v>
@@ -17731,7 +17731,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.49245801907542</v>
+        <v>1.476613591520574</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.240839572475116</v>
@@ -17820,7 +17820,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.487172130546647</v>
+        <v>1.472501680445532</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.380885177649982</v>
@@ -17909,7 +17909,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.4659275054957</v>
+        <v>1.454449385481684</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.149035559404416</v>
@@ -17998,7 +17998,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.442900693739908</v>
+        <v>1.434764992340468</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.134497570541023</v>
@@ -18087,7 +18087,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.435067412219854</v>
+        <v>1.430178267500562</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.086692047439608</v>
@@ -18176,7 +18176,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.449203388863341</v>
+        <v>1.44149857381221</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.250692980229617</v>
@@ -18265,7 +18265,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.478789583936908</v>
+        <v>1.47089983066759</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.160512741636986</v>
@@ -18354,7 +18354,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.492279508737915</v>
+        <v>1.486567140564022</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.104591939081449</v>
@@ -18443,7 +18443,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.490850978950021</v>
+        <v>1.4873963628092</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.12829011783275</v>
@@ -18532,7 +18532,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.489512847062976</v>
+        <v>1.484178009722814</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.148898231438026</v>
@@ -18621,7 +18621,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.510928521480253</v>
+        <v>1.504685888041364</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.097537432795114</v>
@@ -18710,7 +18710,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.521320392483525</v>
+        <v>1.516305757671421</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.040777792435514</v>
@@ -18799,7 +18799,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.558163544165327</v>
+        <v>1.54694126249821</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.090952613415042</v>
@@ -18888,7 +18888,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.489240550671544</v>
+        <v>1.48824589603429</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.189090540358203</v>
@@ -18977,7 +18977,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.472532727479139</v>
+        <v>1.474129893973467</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.194092400336961</v>
@@ -19263,7 +19263,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.587407675422283</v>
+        <v>1.582537135078472</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.93617835657874</v>
@@ -19352,7 +19352,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.615028600278949</v>
+        <v>1.600799694560543</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.791564445340008</v>
@@ -19441,7 +19441,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.642511573048262</v>
+        <v>1.623758601715774</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.521197836541373</v>
@@ -19530,7 +19530,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.642408416845422</v>
+        <v>1.624103812135699</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.890272886807727</v>
@@ -19619,7 +19619,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.639778147445534</v>
+        <v>1.6198976824593</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.051623513276192</v>
@@ -19708,7 +19708,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.655774812306746</v>
+        <v>1.626623443894158</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.624231242947383</v>
@@ -19797,7 +19797,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.640598145070253</v>
+        <v>1.611172350949166</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.99261163757442</v>
@@ -19886,7 +19886,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.637102813234286</v>
+        <v>1.607134790488701</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.029267909268023</v>
@@ -19975,7 +19975,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.637280816280028</v>
+        <v>1.603348435214881</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.019133609671353</v>
@@ -20064,7 +20064,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.636720424474206</v>
+        <v>1.608037457447533</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.964128590283946</v>
@@ -20153,7 +20153,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.634454316305793</v>
+        <v>1.606189404615643</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.935999356373734</v>
@@ -20242,7 +20242,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.636521183567143</v>
+        <v>1.610517921913438</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.842747208018297</v>
@@ -20331,7 +20331,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.6416865056824</v>
+        <v>1.615446410833419</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.664404987121028</v>
@@ -20420,7 +20420,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.635028734009447</v>
+        <v>1.608618408036403</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.69680152993277</v>
@@ -20509,7 +20509,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.612920789285248</v>
+        <v>1.593164179656375</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.623245733973281</v>
@@ -20598,7 +20598,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.615633362567747</v>
+        <v>1.592243618815194</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.674303464596611</v>
@@ -20687,7 +20687,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.609767388574968</v>
+        <v>1.585992967921551</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.71130186549235</v>
@@ -20776,7 +20776,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.611120848126759</v>
+        <v>1.586824414490967</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.733994006969389</v>
@@ -20865,7 +20865,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.60878440501566</v>
+        <v>1.586079418961123</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.641406406817016</v>
@@ -20954,7 +20954,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.619446972636898</v>
+        <v>1.600382163702591</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.592016802827261</v>
@@ -21043,7 +21043,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.57826646634464</v>
+        <v>1.563873268498105</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.240562113722262</v>
@@ -21132,7 +21132,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.595569917287127</v>
+        <v>1.582876423950958</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.186364923543936</v>
@@ -21221,7 +21221,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.589705974240871</v>
+        <v>1.581504114786184</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.222256870064387</v>
@@ -21310,7 +21310,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.59426893056306</v>
+        <v>1.587020995746582</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.2230287301255</v>
@@ -21399,7 +21399,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.587874490322011</v>
+        <v>1.580373240693714</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.254430879086727</v>
@@ -21488,7 +21488,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.591423430129556</v>
+        <v>1.581710949279244</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.273761122204527</v>
@@ -21577,7 +21577,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.590275224128424</v>
+        <v>1.578594770494098</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.249095260416687</v>
@@ -21666,7 +21666,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.588751005325169</v>
+        <v>1.576720649709008</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.247456198828476</v>
@@ -21755,7 +21755,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.61362439040857</v>
+        <v>1.591212292478819</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.396691552944415</v>
@@ -21844,7 +21844,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.621970850521332</v>
+        <v>1.595932354448381</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.2925303671718</v>
@@ -21933,7 +21933,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.625872404567357</v>
+        <v>1.601744989748082</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.281655209207563</v>
@@ -22022,7 +22022,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.63406524347383</v>
+        <v>1.613527868284788</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.221178488153354</v>
@@ -22111,7 +22111,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.627551104640415</v>
+        <v>1.603760240132552</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.313016351313175</v>
@@ -22200,7 +22200,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.630574401723234</v>
+        <v>1.611152152509812</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.286903587662687</v>
@@ -22289,7 +22289,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.635868627948601</v>
+        <v>1.617545385245803</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.303205503099818</v>
@@ -22378,7 +22378,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.6386801377378</v>
+        <v>1.626121828263758</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.516058731222057</v>
@@ -22467,7 +22467,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.634383676091291</v>
+        <v>1.619305993739398</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.533819496110145</v>
@@ -22556,7 +22556,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.63144722106792</v>
+        <v>1.616383896786724</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.533618534604888</v>
@@ -22645,7 +22645,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.623270858892291</v>
+        <v>1.607129931558464</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.603142445576412</v>
@@ -22734,7 +22734,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.620183662564167</v>
+        <v>1.603695254589817</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.630280933343631</v>
@@ -22823,7 +22823,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.61163929067018</v>
+        <v>1.597242080774334</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.506216319210871</v>
@@ -22912,7 +22912,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.619287858247406</v>
+        <v>1.607849062909498</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.628552644983082</v>
@@ -23198,7 +23198,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.392195320821675</v>
+        <v>1.382488513034576</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.592384869254771</v>
@@ -23287,7 +23287,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.404599802787972</v>
+        <v>1.392273870178369</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.5621278879642</v>
@@ -23376,7 +23376,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.414087713614151</v>
+        <v>1.40827297635214</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.415344339081651</v>
@@ -23465,7 +23465,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.416419793047539</v>
+        <v>1.412981973624767</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.510857078147602</v>
@@ -23554,7 +23554,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.414093682943611</v>
+        <v>1.407648505232236</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.572291397769218</v>
@@ -23643,7 +23643,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.426539147615922</v>
+        <v>1.423567718239196</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.681741515894207</v>
@@ -23732,7 +23732,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.417373425879997</v>
+        <v>1.415675148978569</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.610119429614064</v>
@@ -23821,7 +23821,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.406510719752704</v>
+        <v>1.407018411696333</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.474683951042736</v>
@@ -23910,7 +23910,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.398812933471952</v>
+        <v>1.401442726489065</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.397996248577685</v>
@@ -23999,7 +23999,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.403648815247187</v>
+        <v>1.405767766824594</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.668973119220055</v>
@@ -24088,7 +24088,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.40370548315519</v>
+        <v>1.405416796722563</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.175379617270324</v>
@@ -24177,7 +24177,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.405266984479289</v>
+        <v>1.411880123259039</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.29378713762019</v>
@@ -24266,7 +24266,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.395244010196694</v>
+        <v>1.403300986495457</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.406831336686886</v>
@@ -24355,7 +24355,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.395641541667568</v>
+        <v>1.406715849457086</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.336648254702272</v>
@@ -24444,7 +24444,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.394144139452849</v>
+        <v>1.409392497001026</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.261946710280003</v>
@@ -24533,7 +24533,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.378324294538625</v>
+        <v>1.39418066098044</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.288235870713387</v>
@@ -24622,7 +24622,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.373125099196342</v>
+        <v>1.38289204471353</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.435834713109458</v>
@@ -24711,7 +24711,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.371951531896627</v>
+        <v>1.376764118861756</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.295986585852821</v>
@@ -24800,7 +24800,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.374007260480109</v>
+        <v>1.37867492568187</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.163757302687607</v>
@@ -24889,7 +24889,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.375960579794816</v>
+        <v>1.382109177583599</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.354732110925791</v>
@@ -24978,7 +24978,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.360661367228615</v>
+        <v>1.365043190656378</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.39275510462508</v>
@@ -25067,7 +25067,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.365967725765657</v>
+        <v>1.367880584078925</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.148508418735699</v>
@@ -25156,7 +25156,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.372457671771281</v>
+        <v>1.374719080622326</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.274597130842567</v>
@@ -25245,7 +25245,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.370746086677048</v>
+        <v>1.373133817068156</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.361196309269189</v>
@@ -25334,7 +25334,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.370324248645554</v>
+        <v>1.373740220363606</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.436757030793196</v>
@@ -25423,7 +25423,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.381076672346649</v>
+        <v>1.385583908857533</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.34522468858066</v>
@@ -25512,7 +25512,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.377529006463502</v>
+        <v>1.381467007332002</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.4151723202768</v>
@@ -25601,7 +25601,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.387452694285314</v>
+        <v>1.392735226795549</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.379136648434947</v>
@@ -25690,7 +25690,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.391983329312846</v>
+        <v>1.40112578603046</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.519544665938529</v>
@@ -25779,7 +25779,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.409554308213636</v>
+        <v>1.416438764128904</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.231405023066481</v>
@@ -25868,7 +25868,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.41594731703598</v>
+        <v>1.427821760351989</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.362200260436976</v>
@@ -25957,7 +25957,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.423177934176853</v>
+        <v>1.440892808267886</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.502030378089173</v>
@@ -26046,7 +26046,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.438616204644641</v>
+        <v>1.453580219703278</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.509022127334806</v>
@@ -26135,7 +26135,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.432348671043339</v>
+        <v>1.45365710442035</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.332671682435865</v>
@@ -26224,7 +26224,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.437666101478527</v>
+        <v>1.458183439217413</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.524722273515516</v>
@@ -26313,7 +26313,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.461411664872139</v>
+        <v>1.480325840629791</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.760258305838984</v>
@@ -26402,7 +26402,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.454033253284704</v>
+        <v>1.473979418835808</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.983084317764359</v>
@@ -26491,7 +26491,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.461535131477792</v>
+        <v>1.481322019397551</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.780292782048365</v>
@@ -26580,7 +26580,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.474908558830775</v>
+        <v>1.495858018171211</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.9114683586636</v>
@@ -26669,7 +26669,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.471926220223344</v>
+        <v>1.488450767483334</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.017729780032261</v>
@@ -26758,7 +26758,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.478663547769069</v>
+        <v>1.496175063024959</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.116608867834621</v>
@@ -26847,7 +26847,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.49037790184813</v>
+        <v>1.50513497677604</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.819742725938081</v>
